--- a/ip.xlsx
+++ b/ip.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFD68BD-90F6-427F-9FE4-90A0266D09A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FE5CD1-99B3-4D1B-984C-DA46CAA64441}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>cloud_ip</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,23 +39,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2.2.2.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.3.3.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.1.1 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>external_domain</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">10.0.0.0/24 </t>
+    <t>10.203.47.201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.203.47.202</t>
+  </si>
+  <si>
+    <t>10.203.47.203</t>
+  </si>
+  <si>
+    <t>10.203.47.204</t>
+  </si>
+  <si>
+    <t>10.202.64.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1521</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -382,11 +387,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BCF2A2-B4B3-424D-AF12-D248FAE32A0E}">
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L34" sqref="L34"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -412,81 +485,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" s="1">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BCF2A2-B4B3-424D-AF12-D248FAE32A0E}">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N29" sqref="N28:N29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="1"/>
-    <col min="4" max="4" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C3" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
